--- a/DMS/Templates/Lucky_Number_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D76DF7-EE17-4115-88B3-6D51A95DF976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F33567-18F5-4F0C-9781-B41C010E688C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>{{Exports.RewardStatus}}</t>
+  </si>
+  <si>
+    <t>Ngày thực hiện</t>
+  </si>
+  <si>
+    <t>{{Exports.Date}}</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,10 +464,11 @@
     <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -477,8 +484,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -493,6 +503,9 @@
       </c>
       <c r="E2" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Lucky_Number_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F33567-18F5-4F0C-9781-B41C010E688C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74254D19-7C40-4392-82EE-D8D391140E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
     <t>{{Exports.RewardStatus}}</t>
   </si>
   <si>
-    <t>Ngày thực hiện</t>
-  </si>
-  <si>
     <t>{{Exports.Date}}</t>
+  </si>
+  <si>
+    <t>Ngày quay thưởng</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,7 +464,7 @@
     <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Lucky_Number_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dotNet\DMS\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74254D19-7C40-4392-82EE-D8D391140E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0953A-6125-4E17-9235-D51906D82E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
+    <sheet name="Giải thưởng" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
